--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2833457.803176225</v>
+        <v>2837008.362963619</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069175</v>
+        <v>840694.9721069178</v>
       </c>
     </row>
     <row r="9">
@@ -712,10 +712,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>103.5280487491366</v>
       </c>
       <c r="U2" t="n">
-        <v>138.3038958997682</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3957641203958519</v>
+        <v>229.2898795041792</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>59.72683757586863</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586863</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>95.22084306150866</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>34.32389483613417</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
         <v>286.2142514133935</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T14" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U14" t="n">
         <v>251.0030623803221</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>119.7401400319056</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2142514133935</v>
+        <v>221.0886563170625</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>119.7401400319056</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>119.7401400319056</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>28.81869974802302</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S22" t="n">
-        <v>130.4482050673223</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
         <v>219.7379838856521</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>27.10637519976323</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>164.8591372263284</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
         <v>219.7379838856521</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.7401400319056</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.46978271449999</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>92.04136773386132</v>
       </c>
       <c r="T31" t="n">
         <v>219.7379838856521</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.71598691911602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673223</v>
       </c>
       <c r="T34" t="n">
         <v>219.7379838856521</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>81.28279040399522</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>119.7401400319056</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673223</v>
       </c>
       <c r="T40" t="n">
         <v>219.7379838856521</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>165.6178152390055</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>130.4482050673223</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>137.3464811547672</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>130.4482050673221</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
-        <v>28.68313558002738</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4336,16 +4336,16 @@
         <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224088</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
         <v>2544.691559791253</v>
@@ -4360,7 +4360,7 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2361.369127247596</v>
       </c>
       <c r="U2" t="n">
         <v>2107.607341885688</v>
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424004</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,7 +4427,7 @@
         <v>2231.81559303506</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.060406649889</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,13 +4591,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
         <v>2465.543152125112</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858883</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661918</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837987</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858883</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2379.333770138674</v>
       </c>
       <c r="C11" t="n">
-        <v>2010.371253198263</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
         <v>1652.105554591512</v>
@@ -5029,7 +5029,7 @@
         <v>1266.317301993268</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036606</v>
+        <v>855.3313972036601</v>
       </c>
       <c r="G11" t="n">
         <v>440.1593205155743</v>
@@ -5047,13 +5047,13 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.642956557056</v>
+        <v>1611.438070502394</v>
       </c>
       <c r="M11" t="n">
-        <v>2483.047833504645</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N11" t="n">
-        <v>3012.403793765421</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O11" t="n">
         <v>3520.693250262004</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>449.4410924000633</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="C13" t="n">
-        <v>280.5049094721564</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="D13" t="n">
-        <v>130.3882700598207</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="E13" t="n">
-        <v>130.3882700598207</v>
+        <v>341.2772149955355</v>
       </c>
       <c r="F13" t="n">
-        <v>130.3882700598207</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="G13" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H13" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I13" t="n">
         <v>95.71766921524075</v>
@@ -5226,25 +5226,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T13" t="n">
-        <v>1913.078649972671</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U13" t="n">
-        <v>1623.973345514698</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V13" t="n">
-        <v>1369.288857308811</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W13" t="n">
-        <v>1079.871687271851</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X13" t="n">
-        <v>851.8821363738332</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y13" t="n">
-        <v>631.0895572303031</v>
+        <v>437.4598847546351</v>
       </c>
     </row>
     <row r="14">
@@ -5263,10 +5263,10 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E14" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036602</v>
       </c>
       <c r="G14" t="n">
         <v>440.1593205155743</v>
@@ -5281,25 +5281,25 @@
         <v>443.7150397139486</v>
       </c>
       <c r="K14" t="n">
-        <v>765.1137348815562</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L14" t="n">
-        <v>1614.223600516549</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M14" t="n">
-        <v>2575.628477464137</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N14" t="n">
-        <v>3537.957892892778</v>
+        <v>3000.358850775381</v>
       </c>
       <c r="O14" t="n">
-        <v>4024.47845415181</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P14" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q14" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R14" t="n">
         <v>4785.883460762037</v>
@@ -5314,13 +5314,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V14" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y14" t="n">
         <v>2765.933610202796</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>216.667305611105</v>
+        <v>537.1352232072251</v>
       </c>
       <c r="C16" t="n">
-        <v>216.667305611105</v>
+        <v>537.1352232072251</v>
       </c>
       <c r="D16" t="n">
-        <v>216.667305611105</v>
+        <v>537.1352232072251</v>
       </c>
       <c r="E16" t="n">
-        <v>216.667305611105</v>
+        <v>389.222129624832</v>
       </c>
       <c r="F16" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="G16" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H16" t="n">
         <v>95.71766921524075</v>
@@ -5469,19 +5469,19 @@
         <v>1498.656398353473</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.5510938955</v>
+        <v>1275.334523285733</v>
       </c>
       <c r="V16" t="n">
-        <v>954.866605689613</v>
+        <v>1275.334523285733</v>
       </c>
       <c r="W16" t="n">
-        <v>665.4494356526525</v>
+        <v>985.9173532487725</v>
       </c>
       <c r="X16" t="n">
-        <v>437.4598847546351</v>
+        <v>757.9278023507552</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.667305611105</v>
+        <v>537.1352232072251</v>
       </c>
     </row>
     <row r="17">
@@ -5500,13 +5500,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E17" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H17" t="n">
         <v>141.5554198924156</v>
@@ -5551,13 +5551,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V17" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y17" t="n">
         <v>2765.933610202796</v>
@@ -5594,16 +5594,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K18" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L18" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M18" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N18" t="n">
         <v>1737.471620890736</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>216.667305611105</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C19" t="n">
-        <v>216.667305611105</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D19" t="n">
-        <v>216.667305611105</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E19" t="n">
-        <v>216.667305611105</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F19" t="n">
-        <v>216.667305611105</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G19" t="n">
         <v>95.71766921524075</v>
@@ -5734,16 +5734,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036605</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H20" t="n">
         <v>141.5554198924156</v>
@@ -5831,22 +5831,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>258.3150913629237</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K21" t="n">
-        <v>488.1430095111803</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4975491433815</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M21" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N21" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O21" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P21" t="n">
         <v>2436.525948037006</v>
@@ -5934,28 +5934,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S22" t="n">
-        <v>1781.312786268305</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.355226787849</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.249922329876</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.565434123989</v>
+        <v>863.0267670190245</v>
       </c>
       <c r="W22" t="n">
-        <v>726.1482640870279</v>
+        <v>573.609596982064</v>
       </c>
       <c r="X22" t="n">
-        <v>498.1587131890105</v>
+        <v>345.6200460840466</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.3661340454805</v>
+        <v>124.8274669405165</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C23" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F23" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H23" t="n">
         <v>141.5554198924156</v>
@@ -6022,19 +6022,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U23" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V23" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y23" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>242.6076167131511</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="C25" t="n">
-        <v>242.6076167131511</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="D25" t="n">
-        <v>242.6076167131511</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="E25" t="n">
-        <v>242.6076167131511</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="F25" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G25" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H25" t="n">
         <v>95.71766921524075</v>
@@ -6174,25 +6174,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S25" t="n">
-        <v>1746.554268935976</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T25" t="n">
-        <v>1524.596709455519</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U25" t="n">
-        <v>1235.491404997546</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V25" t="n">
-        <v>980.8069167916592</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W25" t="n">
-        <v>691.3897467546985</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X25" t="n">
-        <v>463.4001958566812</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y25" t="n">
-        <v>242.6076167131511</v>
+        <v>437.4598847546351</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C26" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E26" t="n">
         <v>1266.317301993267</v>
@@ -6226,25 +6226,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K26" t="n">
-        <v>1086.017693327009</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L26" t="n">
-        <v>1521.642956557056</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M26" t="n">
-        <v>2038.02943534674</v>
+        <v>2284.108388731333</v>
       </c>
       <c r="N26" t="n">
-        <v>2657.180509552854</v>
+        <v>2813.464348992109</v>
       </c>
       <c r="O26" t="n">
-        <v>3520.693250262004</v>
+        <v>3676.977089701259</v>
       </c>
       <c r="P26" t="n">
-        <v>4220.007013476401</v>
+        <v>4376.290852915656</v>
       </c>
       <c r="Q26" t="n">
         <v>4667.940766252041</v>
@@ -6259,19 +6259,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U26" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V26" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X26" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y26" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="27">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>390.5207102955442</v>
+        <v>216.667305611105</v>
       </c>
       <c r="C28" t="n">
-        <v>390.5207102955442</v>
+        <v>216.667305611105</v>
       </c>
       <c r="D28" t="n">
-        <v>390.5207102955442</v>
+        <v>216.667305611105</v>
       </c>
       <c r="E28" t="n">
-        <v>242.6076167131511</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F28" t="n">
         <v>95.71766921524075</v>
@@ -6429,7 +6429,7 @@
         <v>437.4598847546351</v>
       </c>
       <c r="Y28" t="n">
-        <v>390.5207102955442</v>
+        <v>216.667305611105</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C29" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
@@ -6469,10 +6469,10 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.642956557056</v>
+        <v>1611.438070502394</v>
       </c>
       <c r="M29" t="n">
-        <v>2038.02943534674</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N29" t="n">
         <v>2657.180509552854</v>
@@ -6493,22 +6493,22 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T29" t="n">
-        <v>4466.908689902181</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U29" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V29" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W29" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X29" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y29" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="30">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.4013778014034</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C31" t="n">
         <v>263.4651948734965</v>
@@ -6645,28 +6645,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S31" t="n">
-        <v>1913.078649972671</v>
+        <v>1728.267732783031</v>
       </c>
       <c r="T31" t="n">
-        <v>1691.121090492215</v>
+        <v>1506.310173302574</v>
       </c>
       <c r="U31" t="n">
-        <v>1402.015786034242</v>
+        <v>1217.204868844601</v>
       </c>
       <c r="V31" t="n">
-        <v>1147.331297828355</v>
+        <v>962.5203806387142</v>
       </c>
       <c r="W31" t="n">
-        <v>857.9141277913939</v>
+        <v>673.1032106017535</v>
       </c>
       <c r="X31" t="n">
-        <v>629.9245768933765</v>
+        <v>445.1136597037362</v>
       </c>
       <c r="Y31" t="n">
-        <v>614.0498426316432</v>
+        <v>445.1136597037362</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C32" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E32" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F32" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H32" t="n">
         <v>141.5554198924156</v>
@@ -6700,28 +6700,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K32" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L32" t="n">
-        <v>1611.438070502394</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M32" t="n">
-        <v>2127.824549292078</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N32" t="n">
-        <v>2657.180509552854</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O32" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P32" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q32" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R32" t="n">
         <v>4785.883460762037</v>
@@ -6733,19 +6733,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V32" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W32" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X32" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y32" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C34" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D34" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E34" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F34" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G34" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H34" t="n">
         <v>95.71766921524075</v>
@@ -6885,25 +6885,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>1720.61395783393</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.656398353473</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.5510938955</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V34" t="n">
-        <v>954.866605689613</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W34" t="n">
-        <v>872.7627769987088</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X34" t="n">
-        <v>644.7732261006914</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y34" t="n">
-        <v>423.9806469571613</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="35">
@@ -6943,7 +6943,7 @@
         <v>597.7080858612032</v>
       </c>
       <c r="L35" t="n">
-        <v>1243.523871008782</v>
+        <v>1033.33334909125</v>
       </c>
       <c r="M35" t="n">
         <v>1759.910349798466</v>
@@ -7083,7 +7083,7 @@
         <v>216.667305611105</v>
       </c>
       <c r="F37" t="n">
-        <v>95.71766921524075</v>
+        <v>216.667305611105</v>
       </c>
       <c r="G37" t="n">
         <v>95.71766921524075</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C38" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E38" t="n">
         <v>1266.317301993267</v>
@@ -7177,25 +7177,25 @@
         <v>276.3093906935955</v>
       </c>
       <c r="K38" t="n">
-        <v>918.6120443066563</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L38" t="n">
-        <v>1354.237307536703</v>
+        <v>1033.33334909125</v>
       </c>
       <c r="M38" t="n">
-        <v>2315.642184484292</v>
+        <v>1994.738226038838</v>
       </c>
       <c r="N38" t="n">
-        <v>3277.971599912932</v>
+        <v>2957.067641467479</v>
       </c>
       <c r="O38" t="n">
-        <v>3764.492161171964</v>
+        <v>3795.944346689562</v>
       </c>
       <c r="P38" t="n">
-        <v>4463.805924386361</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q38" t="n">
-        <v>4701.547836408695</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7207,19 +7207,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U38" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V38" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y38" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="39">
@@ -7359,19 +7359,19 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S40" t="n">
-        <v>1720.61395783393</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.656398353473</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.5510938955</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V40" t="n">
-        <v>954.866605689613</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W40" t="n">
-        <v>665.4494356526525</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X40" t="n">
         <v>498.1587131890105</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C41" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F41" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H41" t="n">
         <v>141.5554198924156</v>
@@ -7417,10 +7417,10 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L41" t="n">
-        <v>1611.438070502394</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M41" t="n">
-        <v>2127.824549292078</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N41" t="n">
         <v>2657.180509552854</v>
@@ -7444,19 +7444,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U41" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V41" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y41" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.71766921524075</v>
+        <v>827.8021284078044</v>
       </c>
       <c r="C43" t="n">
-        <v>95.71766921524075</v>
+        <v>658.8659454798975</v>
       </c>
       <c r="D43" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="E43" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="F43" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G43" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H43" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I43" t="n">
         <v>95.71766921524075</v>
@@ -7596,25 +7596,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S43" t="n">
-        <v>1781.312786268305</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.355226787849</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.249922329876</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.565434123989</v>
+        <v>1658.394161766784</v>
       </c>
       <c r="W43" t="n">
-        <v>726.1482640870279</v>
+        <v>1368.976991729824</v>
       </c>
       <c r="X43" t="n">
-        <v>498.1587131890105</v>
+        <v>1230.243172381574</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.3661340454805</v>
+        <v>1009.450593238044</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C44" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E44" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F44" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H44" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I44" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J44" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K44" t="n">
-        <v>597.7080858612032</v>
+        <v>765.1137348815562</v>
       </c>
       <c r="L44" t="n">
-        <v>1446.817951496196</v>
+        <v>1200.738998111603</v>
       </c>
       <c r="M44" t="n">
-        <v>2408.222828443784</v>
+        <v>2162.143875059191</v>
       </c>
       <c r="N44" t="n">
-        <v>3370.552243872425</v>
+        <v>2691.499835319968</v>
       </c>
       <c r="O44" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262003</v>
       </c>
       <c r="P44" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.0070134764</v>
       </c>
       <c r="Q44" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.94076625204</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7678,22 +7678,22 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T44" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902181</v>
       </c>
       <c r="U44" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V44" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W44" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X44" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y44" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I45" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J45" t="n">
-        <v>258.3150913629237</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K45" t="n">
-        <v>488.1430095111803</v>
+        <v>414.2869325418658</v>
       </c>
       <c r="L45" t="n">
-        <v>843.4975491433815</v>
+        <v>769.6414721740671</v>
       </c>
       <c r="M45" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N45" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O45" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.669871067691</v>
       </c>
       <c r="Q45" t="n">
         <v>2587.498588679581</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>709.5735326357868</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="C46" t="n">
-        <v>540.6373497078799</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="D46" t="n">
-        <v>390.5207102955442</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="E46" t="n">
-        <v>242.6076167131511</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="F46" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="G46" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="H46" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="I46" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J46" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K46" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M46" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239499</v>
       </c>
       <c r="N46" t="n">
         <v>1318.687152545534</v>
@@ -7824,7 +7824,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P46" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q46" t="n">
         <v>1913.078649972671</v>
@@ -7833,25 +7833,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S46" t="n">
-        <v>1913.078649972671</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T46" t="n">
-        <v>1913.078649972671</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U46" t="n">
-        <v>1884.105785750422</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V46" t="n">
-        <v>1629.421297544535</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W46" t="n">
-        <v>1340.004127507574</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X46" t="n">
-        <v>1112.014576609557</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y46" t="n">
-        <v>891.2219974660266</v>
+        <v>277.3661340454804</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.044284299267</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951791</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,16 +8695,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>90.70213529832102</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>21.98878306823292</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8929,28 +8929,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>34.15539214908188</v>
       </c>
       <c r="P14" t="n">
-        <v>90.95617538133337</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>74.60209794880222</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>74.60209794880242</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>74.60209794880257</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>90.70213529832063</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>54.45252657984955</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10117,13 +10117,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>90.70213529832102</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>90.70213529832063</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>90.70213529832102</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10591,10 +10591,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>212.3136585025573</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>212.3136585025571</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>355.9152969323745</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>31.76988436121056</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>90.70213529832102</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>90.70213529832063</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>260.0527905534074</v>
+        <v>346.1341956393968</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>74.60209794880242</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>74.60209794880225</v>
       </c>
       <c r="R45" t="n">
         <v>3.419393410990438</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>51.21311958506051</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>131.746155565539</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S13" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.68090799102561</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>97.68290229956054</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>65.12559509633095</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>60.09184015003166</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>46.32991036976753</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
         <v>145.148367782564</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>151.0132804339143</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>60.09184015003191</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>118.314672823168</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>97.68290229956054</v>
@@ -24414,7 +24414,7 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S25" t="n">
-        <v>25.68090799102586</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>26.69382261466353</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0700504016732</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>172.1148706375948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>98.4986774834929</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>202.8686664329788</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25092,7 +25092,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
         <v>97.68290229956054</v>
@@ -25125,7 +25125,7 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>60.09184015003191</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>205.2402079325958</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>25.68090799102561</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0700504016732</v>
+        <v>46.32991036976753</v>
       </c>
       <c r="H37" t="n">
         <v>145.148367782564</v>
@@ -25599,7 +25599,7 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>60.09184015003191</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>60.09184015003163</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S43" t="n">
-        <v>60.09184015003191</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>88.36317423426999</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0700504016732</v>
@@ -26073,13 +26073,13 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S46" t="n">
-        <v>190.5400452173542</v>
+        <v>60.09184015003214</v>
       </c>
       <c r="T46" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>257.5311158333661</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772452.0900171092</v>
+        <v>772452.0900171093</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772452.0900171092</v>
+        <v>772452.0900171093</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772452.0900171093</v>
+        <v>772452.0900171092</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772452.0900171093</v>
+        <v>772452.0900171094</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>772452.0900171091</v>
+        <v>772452.0900171092</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772452.0900171093</v>
+        <v>772452.0900171092</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772452.0900171093</v>
+        <v>772452.0900171092</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772452.0900171092</v>
+        <v>772452.0900171093</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.415891427</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>634414.8833019083</v>
+        <v>634414.8833019085</v>
       </c>
       <c r="F2" t="n">
-        <v>634414.883301909</v>
+        <v>634414.8833019084</v>
       </c>
       <c r="G2" t="n">
+        <v>634414.8833019085</v>
+      </c>
+      <c r="H2" t="n">
         <v>634414.8833019084</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>634414.8833019086</v>
+      </c>
+      <c r="J2" t="n">
+        <v>634414.8833019085</v>
+      </c>
+      <c r="K2" t="n">
+        <v>634414.8833019086</v>
+      </c>
+      <c r="L2" t="n">
         <v>634414.8833019082</v>
-      </c>
-      <c r="I2" t="n">
-        <v>634414.8833019082</v>
-      </c>
-      <c r="J2" t="n">
-        <v>634414.8833019086</v>
-      </c>
-      <c r="K2" t="n">
-        <v>634414.8833019085</v>
-      </c>
-      <c r="L2" t="n">
-        <v>634414.8833019083</v>
       </c>
       <c r="M2" t="n">
         <v>634414.8833019083</v>
       </c>
       <c r="N2" t="n">
-        <v>634414.8833019085</v>
+        <v>634414.8833019084</v>
       </c>
       <c r="O2" t="n">
         <v>634414.8833019084</v>
       </c>
       <c r="P2" t="n">
-        <v>634414.8833019083</v>
+        <v>634414.8833019084</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>589967.8792145441</v>
       </c>
       <c r="C3" t="n">
-        <v>3.623321163104265e-10</v>
+        <v>3.10570385408937e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659315</v>
       </c>
       <c r="F4" t="n">
         <v>19876.24241659315</v>
@@ -26441,10 +26441,10 @@
         <v>19876.24241659315</v>
       </c>
       <c r="J4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659316</v>
       </c>
       <c r="K4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659315</v>
       </c>
       <c r="L4" t="n">
         <v>19876.24241659315</v>
@@ -26453,13 +26453,13 @@
         <v>19876.24241659314</v>
       </c>
       <c r="N4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659314</v>
       </c>
       <c r="O4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659314</v>
       </c>
       <c r="P4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659313</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>95967.7133920692</v>
       </c>
       <c r="P5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-199342.2282436547</v>
+        <v>-199342.2282436546</v>
       </c>
       <c r="C6" t="n">
-        <v>390625.6509708887</v>
+        <v>390625.6509708889</v>
       </c>
       <c r="D6" t="n">
-        <v>390625.6509708891</v>
+        <v>390625.6509708893</v>
       </c>
       <c r="E6" t="n">
-        <v>-190380.7484020048</v>
+        <v>-189750.2271729244</v>
       </c>
       <c r="F6" t="n">
-        <v>517870.3483498242</v>
+        <v>518500.8695789038</v>
       </c>
       <c r="G6" t="n">
-        <v>517870.3483498236</v>
+        <v>518500.8695789039</v>
       </c>
       <c r="H6" t="n">
-        <v>517870.3483498234</v>
+        <v>518500.8695789038</v>
       </c>
       <c r="I6" t="n">
-        <v>517870.3483498234</v>
+        <v>518500.869578904</v>
       </c>
       <c r="J6" t="n">
-        <v>341447.1291572308</v>
+        <v>342077.6503863109</v>
       </c>
       <c r="K6" t="n">
-        <v>517870.3483498237</v>
+        <v>518500.869578904</v>
       </c>
       <c r="L6" t="n">
-        <v>517870.3483498235</v>
+        <v>518500.8695789035</v>
       </c>
       <c r="M6" t="n">
-        <v>387740.1083804141</v>
+        <v>388370.6296094942</v>
       </c>
       <c r="N6" t="n">
-        <v>517870.3483498237</v>
+        <v>518500.8695789038</v>
       </c>
       <c r="O6" t="n">
-        <v>517870.3483498236</v>
+        <v>518500.8695789038</v>
       </c>
       <c r="P6" t="n">
-        <v>517870.3483498235</v>
+        <v>518500.8695789038</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170863</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1065.242421490194</v>
@@ -26962,7 +26962,7 @@
         <v>377.7436642170863</v>
       </c>
       <c r="C3" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>112.9202716085213</v>
       </c>
       <c r="U2" t="n">
-        <v>112.9202716085211</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>250.8284033878934</v>
+        <v>21.9342880041101</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>107.5829646831823</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>18.80428161308352</v>
+        <v>18.80428161308354</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831823</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245896</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735645</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.392610473064</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>648.7905592051119</v>
       </c>
       <c r="L11" t="n">
-        <v>440.0255184141889</v>
+        <v>530.7276537125099</v>
       </c>
       <c r="M11" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N11" t="n">
         <v>534.7029901624003</v>
       </c>
       <c r="O11" t="n">
-        <v>513.4236934308916</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P11" t="n">
         <v>706.3775386004011</v>
@@ -35649,28 +35649,28 @@
         <v>351.5124954532402</v>
       </c>
       <c r="K14" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L14" t="n">
-        <v>857.6867329646393</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M14" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N14" t="n">
         <v>972.0499145743844</v>
       </c>
       <c r="O14" t="n">
-        <v>491.4349103626587</v>
+        <v>525.5903025117406</v>
       </c>
       <c r="P14" t="n">
-        <v>475.5350058102517</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R14" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K18" t="n">
         <v>232.1494122709662</v>
@@ -35974,7 +35974,7 @@
         <v>438.4230857901372</v>
       </c>
       <c r="N18" t="n">
-        <v>539.1831250347803</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O18" t="n">
         <v>402.5566389383721</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>164.2398203511949</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K21" t="n">
         <v>232.1494122709662</v>
@@ -36217,7 +36217,7 @@
         <v>402.5566389383721</v>
       </c>
       <c r="P21" t="n">
-        <v>303.5588430275572</v>
+        <v>378.1609409763598</v>
       </c>
       <c r="Q21" t="n">
         <v>152.4976168106823</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K26" t="n">
         <v>648.7905592051119</v>
       </c>
       <c r="L26" t="n">
-        <v>440.0255184141889</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M26" t="n">
         <v>521.6025038279635</v>
       </c>
       <c r="N26" t="n">
-        <v>625.4051254607209</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O26" t="n">
         <v>872.235091625404</v>
@@ -36615,7 +36615,7 @@
         <v>706.3775386004011</v>
       </c>
       <c r="Q26" t="n">
-        <v>452.4583361370097</v>
+        <v>294.5958720569545</v>
       </c>
       <c r="R26" t="n">
         <v>119.1340348585826</v>
@@ -36837,13 +36837,13 @@
         <v>648.7905592051119</v>
       </c>
       <c r="L29" t="n">
-        <v>440.0255184141889</v>
+        <v>530.7276537125099</v>
       </c>
       <c r="M29" t="n">
         <v>521.6025038279635</v>
       </c>
       <c r="N29" t="n">
-        <v>625.4051254607209</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O29" t="n">
         <v>872.235091625404</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K32" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L32" t="n">
-        <v>530.7276537125099</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M32" t="n">
-        <v>521.6025038279635</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N32" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O32" t="n">
-        <v>872.235091625404</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P32" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q32" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R32" t="n">
-        <v>119.1340348585826</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37311,10 +37311,10 @@
         <v>324.6451466339471</v>
       </c>
       <c r="L35" t="n">
-        <v>652.3391769167462</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M35" t="n">
-        <v>521.6025038279635</v>
+        <v>733.9161623305206</v>
       </c>
       <c r="N35" t="n">
         <v>972.0499145743844</v>
@@ -37545,7 +37545,7 @@
         <v>182.4158802811664</v>
       </c>
       <c r="K38" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L38" t="n">
         <v>440.0255184141889</v>
@@ -37557,7 +37557,7 @@
         <v>972.0499145743844</v>
       </c>
       <c r="O38" t="n">
-        <v>491.4349103626587</v>
+        <v>847.3502072950332</v>
       </c>
       <c r="P38" t="n">
         <v>706.3775386004011</v>
@@ -37566,7 +37566,7 @@
         <v>240.143345477105</v>
       </c>
       <c r="R38" t="n">
-        <v>85.18749934681071</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>648.7905592051119</v>
       </c>
       <c r="L41" t="n">
-        <v>530.7276537125099</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M41" t="n">
         <v>521.6025038279635</v>
       </c>
       <c r="N41" t="n">
-        <v>534.7029901624003</v>
+        <v>625.4051254607209</v>
       </c>
       <c r="O41" t="n">
         <v>872.235091625404</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K44" t="n">
         <v>324.6451466339471</v>
       </c>
       <c r="L44" t="n">
-        <v>857.6867329646393</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M44" t="n">
         <v>971.116037320796</v>
       </c>
       <c r="N44" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O44" t="n">
-        <v>751.487700916066</v>
+        <v>837.5691060020555</v>
       </c>
       <c r="P44" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R44" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>164.2398203511949</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K45" t="n">
         <v>232.1494122709662</v>
@@ -38116,7 +38116,7 @@
         <v>303.5588430275572</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.4976168106823</v>
+        <v>227.0997147594846</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
